--- a/data/mock/csv/usuarios.xlsx
+++ b/data/mock/csv/usuarios.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>martin</t>
   </si>
@@ -262,13 +262,19 @@
   </si>
   <si>
     <t>comision</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>ofertantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +290,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +330,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,6 +641,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
@@ -626,570 +1226,6 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/mock/csv/usuarios.xlsx
+++ b/data/mock/csv/usuarios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>martin</t>
   </si>
@@ -267,7 +267,16 @@
     <t>usuario</t>
   </si>
   <si>
-    <t>ofertantes</t>
+    <t>UsuarioState</t>
+  </si>
+  <si>
+    <t>POSTULADO</t>
+  </si>
+  <si>
+    <t>APROBADO</t>
+  </si>
+  <si>
+    <t>DESAPROBADO</t>
   </si>
 </sst>
 </file>
@@ -330,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -338,6 +347,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,554 +670,685 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.2</v>
+      <c r="E2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3</v>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3</v>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="2">
-        <v>0.2</v>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="2">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="2">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="2">
-        <v>0.2</v>
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="2">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.2</v>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
